--- a/outputs/Parish_Demographics.xlsx
+++ b/outputs/Parish_Demographics.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Data Center\Documents\Census2020\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE07D75C-DBD5-430C-9181-01AC0BBF3BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45044CB3-5E1E-4884-BDFC-666DA7EFE71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="375" windowWidth="21660" windowHeight="11385"/>
+    <workbookView xWindow="33525" yWindow="0" windowWidth="21660" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parish_Demographics_Percent" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -251,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,17 +738,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1094,29 +1100,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
@@ -1126,35 +1129,35 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>2000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2010</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>2018</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>2000</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>2010</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>2018</v>
       </c>
     </row>
@@ -1236,7 +1239,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1262,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>4.1000000000000003E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>1.11E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E6" s="1">
         <v>2.7E-2</v>
@@ -1277,10 +1280,10 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>239</v>
-      </c>
-      <c r="J6">
-        <v>685</v>
+        <v>538</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1060</v>
       </c>
       <c r="K6" s="2">
         <v>1696</v>
@@ -1300,7 +1303,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1326,13 +1329,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>5.4000000000000001E-4</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>7.7999999999999999E-4</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>1.4E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1341,10 +1344,10 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="J8">
-        <v>48</v>
+        <v>685</v>
       </c>
       <c r="K8">
         <v>888</v>
@@ -1358,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="D9" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1373,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>538</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1060</v>
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>48</v>
       </c>
       <c r="K9">
         <v>11</v>
@@ -1386,7 +1389,6 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1466,7 +1468,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -1492,10 +1494,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>7.9000000000000008E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E14" s="1">
         <v>2.3E-2</v>
@@ -1506,11 +1508,11 @@
       <c r="H14" t="s">
         <v>6</v>
       </c>
-      <c r="I14">
-        <v>200</v>
+      <c r="I14" s="2">
+        <v>1146</v>
       </c>
       <c r="J14">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="K14">
         <v>577</v>
@@ -1530,7 +1532,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1556,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>4.6999999999999999E-4</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>1.4E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -1571,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J16">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="K16">
         <v>446</v>
@@ -1588,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="D17" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1.2E-4</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1602,11 +1604,11 @@
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2">
-        <v>1146</v>
+      <c r="I17">
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1616,7 +1618,6 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1696,7 +1697,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="E21" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1722,10 +1723,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>5.1999999999999998E-3</v>
+        <v>2.46E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E22" s="1">
         <v>5.7000000000000002E-2</v>
@@ -1736,11 +1737,11 @@
       <c r="H22" t="s">
         <v>6</v>
       </c>
-      <c r="I22">
-        <v>402</v>
+      <c r="I22" s="2">
+        <v>1883</v>
       </c>
       <c r="J22" s="2">
-        <v>1029</v>
+        <v>5024</v>
       </c>
       <c r="K22" s="2">
         <v>7160</v>
@@ -1760,7 +1761,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E23" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1786,13 +1787,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>7.6000000000000004E-4</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>1.81E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E24" s="1">
-        <v>1.2E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1801,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>58</v>
-      </c>
-      <c r="J24">
-        <v>194</v>
+        <v>402</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1029</v>
       </c>
       <c r="K24" s="2">
         <v>1480</v>
@@ -1818,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>2.46E-2</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="D25" s="1">
-        <v>4.7E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="E25" s="1">
-        <v>1E-3</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1832,11 +1833,11 @@
       <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2">
-        <v>1883</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5024</v>
+      <c r="I25">
+        <v>58</v>
+      </c>
+      <c r="J25">
+        <v>194</v>
       </c>
       <c r="K25">
         <v>69</v>
@@ -1846,8 +1847,6 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1927,7 +1926,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E29" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1953,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>4.8999999999999998E-3</v>
+        <v>1.21E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E30" s="1">
         <v>3.1E-2</v>
@@ -1968,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="J30">
-        <v>167</v>
+        <v>498</v>
       </c>
       <c r="K30">
         <v>701</v>
@@ -1991,7 +1990,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="E31" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -2017,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="D32" s="1">
-        <v>6.4000000000000005E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E32" s="1">
         <v>0.01</v>
@@ -2032,10 +2031,10 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="K32">
         <v>224</v>
@@ -2049,13 +2048,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>1.21E-2</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D33" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -2064,10 +2063,10 @@
         <v>7</v>
       </c>
       <c r="I33">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>498</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -2156,7 +2155,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E37" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2182,10 +2181,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E38" s="1">
         <v>0.02</v>
@@ -2197,10 +2196,10 @@
         <v>6</v>
       </c>
       <c r="I38">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="J38">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="K38">
         <v>804</v>
@@ -2220,7 +2219,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2246,13 +2245,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>7.2000000000000005E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D40" s="1">
-        <v>9.3000000000000005E-4</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2261,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="J40">
-        <v>39</v>
+        <v>622</v>
       </c>
       <c r="K40">
         <v>714</v>
@@ -2278,13 +2277,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="1">
-        <v>9.7000000000000003E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="D41" s="1">
-        <v>1.4E-2</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2293,10 +2292,10 @@
         <v>7</v>
       </c>
       <c r="I41">
-        <v>404</v>
+        <v>30</v>
       </c>
       <c r="J41">
-        <v>606</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -2385,7 +2384,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="E45" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -2411,10 +2410,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>1.06E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>2.0299999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E46" s="1">
         <v>3.7999999999999999E-2</v>
@@ -2426,10 +2425,10 @@
         <v>6</v>
       </c>
       <c r="I46">
-        <v>349</v>
-      </c>
-      <c r="J46">
-        <v>724</v>
+        <v>468</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1003</v>
       </c>
       <c r="K46" s="2">
         <v>1422</v>
@@ -2449,7 +2448,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -2475,13 +2474,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>8.8000000000000003E-4</v>
+        <v>1.06E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E48" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2490,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="J48">
-        <v>57</v>
+        <v>724</v>
       </c>
       <c r="K48">
         <v>826</v>
@@ -2507,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="D49" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E49" s="1">
-        <v>1E-3</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -2522,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="I49">
-        <v>468</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1003</v>
+        <v>29</v>
+      </c>
+      <c r="J49">
+        <v>57</v>
       </c>
       <c r="K49">
         <v>30</v>
@@ -2535,7 +2534,6 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2615,7 +2613,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E53" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -2641,10 +2639,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D54" s="1">
-        <v>1.15E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E54" s="1">
         <v>1.9E-2</v>
@@ -2656,10 +2654,10 @@
         <v>6</v>
       </c>
       <c r="I54">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="J54">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="K54">
         <v>259</v>
@@ -2679,7 +2677,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E55" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -2705,13 +2703,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>1.2999999999999999E-4</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="D56" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E56" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -2720,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>177</v>
@@ -2737,10 +2735,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>9.4999999999999998E-3</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="D57" s="1">
-        <v>1.4E-2</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2752,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="I57">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2844,7 +2842,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E61" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
@@ -2870,10 +2868,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>1.7299999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E62" s="1">
         <v>6.8000000000000005E-2</v>
@@ -2885,10 +2883,10 @@
         <v>6</v>
       </c>
       <c r="I62" s="2">
-        <v>1370</v>
+        <v>3063</v>
       </c>
       <c r="J62" s="2">
-        <v>2029</v>
+        <v>7026</v>
       </c>
       <c r="K62" s="2">
         <v>8605</v>
@@ -2908,7 +2906,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E63" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
@@ -2934,13 +2932,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>1.7600000000000001E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>2.4099999999999998E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="E64" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="G64" t="s">
         <v>15</v>
@@ -2948,11 +2946,11 @@
       <c r="H64" t="s">
         <v>2</v>
       </c>
-      <c r="I64">
-        <v>173</v>
-      </c>
-      <c r="J64">
-        <v>282</v>
+      <c r="I64" s="2">
+        <v>1370</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2029</v>
       </c>
       <c r="K64" s="2">
         <v>2810</v>
@@ -2966,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="D65" s="1">
-        <v>0.06</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="E65" s="1">
-        <v>1E-3</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="G65" t="s">
         <v>15</v>
@@ -2980,11 +2978,11 @@
       <c r="H65" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="2">
-        <v>3063</v>
-      </c>
-      <c r="J65" s="2">
-        <v>7026</v>
+      <c r="I65">
+        <v>173</v>
+      </c>
+      <c r="J65">
+        <v>282</v>
       </c>
       <c r="K65">
         <v>141</v>
@@ -2994,8 +2992,6 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -3075,7 +3071,7 @@
         <v>1.04E-2</v>
       </c>
       <c r="E69" s="1">
-        <v>1.2E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3101,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="C70" s="1">
-        <v>8.0999999999999996E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="D70" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E70" s="1">
         <v>2.9000000000000001E-2</v>
@@ -3116,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="I70" s="2">
-        <v>2044</v>
+        <v>3750</v>
       </c>
       <c r="J70" s="2">
-        <v>3181</v>
+        <v>6129</v>
       </c>
       <c r="K70" s="2">
         <v>7005</v>
@@ -3165,13 +3161,13 @@
         <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>9.3000000000000005E-4</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="D72" s="1">
-        <v>1.4300000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3179,11 +3175,11 @@
       <c r="H72" t="s">
         <v>2</v>
       </c>
-      <c r="I72">
-        <v>234</v>
-      </c>
-      <c r="J72">
-        <v>364</v>
+      <c r="I72" s="2">
+        <v>2044</v>
+      </c>
+      <c r="J72" s="2">
+        <v>3181</v>
       </c>
       <c r="K72" s="2">
         <v>3595</v>
@@ -3197,13 +3193,13 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>1.49E-2</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="D73" s="1">
-        <v>2.4E-2</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3211,11 +3207,11 @@
       <c r="H73" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="2">
-        <v>3750</v>
-      </c>
-      <c r="J73" s="2">
-        <v>6129</v>
+      <c r="I73">
+        <v>234</v>
+      </c>
+      <c r="J73">
+        <v>364</v>
       </c>
       <c r="K73">
         <v>113</v>
@@ -3225,8 +3221,6 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -3306,7 +3300,7 @@
         <v>1.06E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -3332,10 +3326,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="D78" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E78" s="1">
         <v>3.7999999999999999E-2</v>
@@ -3347,10 +3341,10 @@
         <v>6</v>
       </c>
       <c r="I78" s="2">
-        <v>1676</v>
+        <v>2463</v>
       </c>
       <c r="J78" s="2">
-        <v>3152</v>
+        <v>4945</v>
       </c>
       <c r="K78" s="2">
         <v>7666</v>
@@ -3370,7 +3364,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="E79" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -3396,13 +3390,13 @@
         <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>1.41E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D80" s="1">
-        <v>3.0599999999999998E-3</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E80" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -3410,11 +3404,11 @@
       <c r="H80" t="s">
         <v>2</v>
       </c>
-      <c r="I80">
-        <v>258</v>
-      </c>
-      <c r="J80">
-        <v>590</v>
+      <c r="I80" s="2">
+        <v>1676</v>
+      </c>
+      <c r="J80" s="2">
+        <v>3152</v>
       </c>
       <c r="K80" s="2">
         <v>3735</v>
@@ -3428,13 +3422,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="1">
-        <v>1.34E-2</v>
+        <v>1.41E-3</v>
       </c>
       <c r="D81" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
@@ -3442,11 +3436,11 @@
       <c r="H81" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="2">
-        <v>2463</v>
-      </c>
-      <c r="J81" s="2">
-        <v>4945</v>
+      <c r="I81">
+        <v>258</v>
+      </c>
+      <c r="J81">
+        <v>590</v>
       </c>
       <c r="K81">
         <v>93</v>
@@ -3456,8 +3450,6 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -3537,7 +3529,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E85" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G85" t="s">
         <v>18</v>
@@ -3563,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="D86" s="1">
-        <v>8.3000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E86" s="1">
         <v>3.2000000000000001E-2</v>
@@ -3578,10 +3570,10 @@
         <v>6</v>
       </c>
       <c r="I86">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="J86">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="K86">
         <v>317</v>
@@ -3601,7 +3593,7 @@
         <v>1.9E-3</v>
       </c>
       <c r="E87" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G87" t="s">
         <v>18</v>
@@ -3627,13 +3619,13 @@
         <v>2</v>
       </c>
       <c r="C88" s="1">
-        <v>3.8000000000000002E-4</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D88" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E88" s="1">
-        <v>1.2E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="G88" t="s">
         <v>18</v>
@@ -3642,10 +3634,10 @@
         <v>2</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="K88">
         <v>115</v>
@@ -3659,13 +3651,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="1">
-        <v>1.49E-2</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="D89" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
@@ -3674,10 +3666,10 @@
         <v>7</v>
       </c>
       <c r="I89">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -3766,7 +3758,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E93" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
@@ -3792,10 +3784,10 @@
         <v>6</v>
       </c>
       <c r="C94" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="D94" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E94" s="1">
         <v>4.2999999999999997E-2</v>
@@ -3807,10 +3799,10 @@
         <v>6</v>
       </c>
       <c r="I94">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="J94">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="K94">
         <v>297</v>
@@ -3830,7 +3822,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E95" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -3856,13 +3848,13 @@
         <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>1E-4</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D96" s="1">
-        <v>1.4999999999999999E-4</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E96" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -3871,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="K96">
         <v>90</v>
@@ -3888,13 +3880,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="1">
-        <v>2.1499999999999998E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="D97" s="1">
-        <v>2.3E-2</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -3903,10 +3895,10 @@
         <v>7</v>
       </c>
       <c r="I97">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -3995,7 +3987,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E101" s="1">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -4021,10 +4013,10 @@
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>5.1999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="D102" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E102" s="1">
         <v>1.7000000000000001E-2</v>
@@ -4036,10 +4028,10 @@
         <v>6</v>
       </c>
       <c r="I102">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="J102">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="K102">
         <v>167</v>
@@ -4059,7 +4051,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E103" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
@@ -4085,13 +4077,13 @@
         <v>2</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E104" s="1">
-        <v>0.01</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
@@ -4100,10 +4092,10 @@
         <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K104">
         <v>100</v>
@@ -4117,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="C105" s="1">
-        <v>9.1999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -4132,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="I105">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -4224,7 +4216,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="E109" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
@@ -4250,10 +4242,10 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="D110" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E110" s="1">
         <v>1.4999999999999999E-2</v>
@@ -4265,10 +4257,10 @@
         <v>6</v>
       </c>
       <c r="I110">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="J110">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="K110">
         <v>243</v>
@@ -4314,13 +4306,13 @@
         <v>2</v>
       </c>
       <c r="C112" s="1">
-        <v>2.4000000000000001E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D112" s="1">
-        <v>1.7000000000000001E-4</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E112" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="G112" t="s">
         <v>21</v>
@@ -4329,10 +4321,10 @@
         <v>2</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="K112">
         <v>177</v>
@@ -4346,13 +4338,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="1">
-        <v>7.6E-3</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="D113" s="1">
-        <v>0.01</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="E113" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G113" t="s">
         <v>21</v>
@@ -4361,10 +4353,10 @@
         <v>7</v>
       </c>
       <c r="I113">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="J113">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="K113">
         <v>4</v>
@@ -4453,7 +4445,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E117" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="G117" t="s">
         <v>22</v>
@@ -4479,10 +4471,10 @@
         <v>6</v>
       </c>
       <c r="C118" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="D118" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E118" s="1">
         <v>1.4999999999999999E-2</v>
@@ -4494,10 +4486,10 @@
         <v>6</v>
       </c>
       <c r="I118">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="J118">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="K118">
         <v>295</v>
@@ -4543,13 +4535,13 @@
         <v>2</v>
       </c>
       <c r="C120" s="1">
-        <v>5.9000000000000003E-4</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D120" s="1">
-        <v>7.6999999999999996E-4</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E120" s="1">
-        <v>0.01</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G120" t="s">
         <v>22</v>
@@ -4558,10 +4550,10 @@
         <v>2</v>
       </c>
       <c r="I120">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="J120">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="K120">
         <v>191</v>
@@ -4575,13 +4567,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="D121" s="1">
-        <v>0.01</v>
+        <v>7.6999999999999996E-4</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G121" t="s">
         <v>22</v>
@@ -4590,10 +4582,10 @@
         <v>7</v>
       </c>
       <c r="I121">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="J121">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="K121">
         <v>4</v>
@@ -4682,7 +4674,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="E125" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
@@ -4708,10 +4700,10 @@
         <v>6</v>
       </c>
       <c r="C126" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D126" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E126" s="1">
         <v>0.03</v>
@@ -4723,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="I126">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="J126">
-        <v>265</v>
+        <v>661</v>
       </c>
       <c r="K126">
         <v>814</v>
@@ -4746,7 +4738,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="E127" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="G127" t="s">
         <v>23</v>
@@ -4772,13 +4764,13 @@
         <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>9.3999999999999997E-4</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D128" s="1">
-        <v>7.1000000000000002E-4</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="E128" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="G128" t="s">
         <v>23</v>
@@ -4787,10 +4779,10 @@
         <v>2</v>
       </c>
       <c r="I128">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="J128">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="K128">
         <v>369</v>
@@ -4804,13 +4796,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="1">
-        <v>1.55E-2</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="D129" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G129" t="s">
         <v>23</v>
@@ -4819,10 +4811,10 @@
         <v>7</v>
       </c>
       <c r="I129">
-        <v>396</v>
+        <v>24</v>
       </c>
       <c r="J129">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="K129">
         <v>12</v>
@@ -4911,7 +4903,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
       <c r="E133" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="G133" t="s">
         <v>24</v>
@@ -4937,10 +4929,10 @@
         <v>6</v>
       </c>
       <c r="C134" s="1">
-        <v>8.0999999999999996E-3</v>
+        <v>1.78E-2</v>
       </c>
       <c r="D134" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E134" s="1">
         <v>4.2000000000000003E-2</v>
@@ -4952,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="I134" s="2">
-        <v>3328</v>
+        <v>7363</v>
       </c>
       <c r="J134" s="2">
-        <v>4728</v>
+        <v>16274</v>
       </c>
       <c r="K134" s="2">
         <v>18539</v>
@@ -5001,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="D136" s="1">
-        <v>1.5900000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E136" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G136" t="s">
         <v>24</v>
@@ -5015,11 +5007,11 @@
       <c r="H136" t="s">
         <v>2</v>
       </c>
-      <c r="I136">
-        <v>536</v>
-      </c>
-      <c r="J136">
-        <v>702</v>
+      <c r="I136" s="2">
+        <v>3328</v>
+      </c>
+      <c r="J136" s="2">
+        <v>4728</v>
       </c>
       <c r="K136" s="2">
         <v>5801</v>
@@ -5033,13 +5025,13 @@
         <v>7</v>
       </c>
       <c r="C137" s="1">
-        <v>1.78E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D137" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="G137" t="s">
         <v>24</v>
@@ -5047,11 +5039,11 @@
       <c r="H137" t="s">
         <v>7</v>
       </c>
-      <c r="I137" s="2">
-        <v>7363</v>
-      </c>
-      <c r="J137" s="2">
-        <v>16274</v>
+      <c r="I137">
+        <v>536</v>
+      </c>
+      <c r="J137">
+        <v>702</v>
       </c>
       <c r="K137">
         <v>84</v>
@@ -5061,8 +5053,6 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -5142,7 +5132,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="E141" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="G141" t="s">
         <v>25</v>
@@ -5168,10 +5158,10 @@
         <v>6</v>
       </c>
       <c r="C142" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D142" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E142" s="1">
         <v>2.5000000000000001E-2</v>
@@ -5183,10 +5173,10 @@
         <v>6</v>
       </c>
       <c r="I142">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="J142">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K142">
         <v>175</v>
@@ -5206,7 +5196,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="E143" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="G143" t="s">
         <v>25</v>
@@ -5232,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="C144" s="1">
-        <v>2.1000000000000001E-4</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E144" s="1">
-        <v>0.01</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G144" t="s">
         <v>25</v>
@@ -5247,10 +5237,10 @@
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>69</v>
@@ -5264,10 +5254,10 @@
         <v>7</v>
       </c>
       <c r="C145" s="1">
-        <v>1.1900000000000001E-2</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="D145" s="1">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -5279,10 +5269,10 @@
         <v>7</v>
       </c>
       <c r="I145">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -5371,7 +5361,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E149" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G149" t="s">
         <v>26</v>
@@ -5397,10 +5387,10 @@
         <v>6</v>
       </c>
       <c r="C150" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D150" s="1">
-        <v>1.06E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E150" s="1">
         <v>1.7000000000000001E-2</v>
@@ -5412,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="I150">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="J150">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K150">
         <v>322</v>
@@ -5435,7 +5425,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E151" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G151" t="s">
         <v>26</v>
@@ -5461,13 +5451,13 @@
         <v>2</v>
       </c>
       <c r="C152" s="1">
-        <v>8.4000000000000003E-4</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="D152" s="1">
-        <v>7.3999999999999999E-4</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E152" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G152" t="s">
         <v>26</v>
@@ -5476,10 +5466,10 @@
         <v>2</v>
       </c>
       <c r="I152">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="J152">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="K152">
         <v>254</v>
@@ -5493,13 +5483,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="D153" s="1">
-        <v>0.01</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E153" s="1">
-        <v>0</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G153" t="s">
         <v>26</v>
@@ -5508,10 +5498,10 @@
         <v>7</v>
       </c>
       <c r="I153">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="J153">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -5600,7 +5590,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E157" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G157" t="s">
         <v>27</v>
@@ -5626,10 +5616,10 @@
         <v>6</v>
       </c>
       <c r="C158" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D158" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E158" s="1">
         <v>3.7999999999999999E-2</v>
@@ -5641,10 +5631,10 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="J158">
-        <v>326</v>
+        <v>776</v>
       </c>
       <c r="K158" s="2">
         <v>1285</v>
@@ -5664,7 +5654,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E159" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G159" t="s">
         <v>27</v>
@@ -5690,13 +5680,13 @@
         <v>2</v>
       </c>
       <c r="C160" s="1">
-        <v>1.0399999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D160" s="1">
-        <v>1.06E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E160" s="1">
-        <v>1.2E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="G160" t="s">
         <v>27</v>
@@ -5705,10 +5695,10 @@
         <v>2</v>
       </c>
       <c r="I160">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="J160">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="K160">
         <v>408</v>
@@ -5722,13 +5712,13 @@
         <v>7</v>
       </c>
       <c r="C161" s="1">
-        <v>1.04E-2</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="D161" s="1">
-        <v>2.3E-2</v>
+        <v>1.06E-3</v>
       </c>
       <c r="E161" s="1">
-        <v>0</v>
+        <v>1.2E-4</v>
       </c>
       <c r="G161" t="s">
         <v>27</v>
@@ -5737,10 +5727,10 @@
         <v>7</v>
       </c>
       <c r="I161">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="J161">
-        <v>776</v>
+        <v>36</v>
       </c>
       <c r="K161">
         <v>4</v>
@@ -5829,7 +5819,7 @@
         <v>2E-3</v>
       </c>
       <c r="E165" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G165" t="s">
         <v>28</v>
@@ -5855,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="C166" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D166" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E166" s="1">
         <v>1.7000000000000001E-2</v>
@@ -5870,10 +5860,10 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="J166">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="K166">
         <v>343</v>
@@ -5893,7 +5883,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E167" s="1">
-        <v>2E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G167" t="s">
         <v>28</v>
@@ -5919,13 +5909,13 @@
         <v>2</v>
       </c>
       <c r="C168" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="D168" s="1">
-        <v>5.2999999999999998E-4</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E168" s="1">
-        <v>0.01</v>
+        <v>1.01E-2</v>
       </c>
       <c r="G168" t="s">
         <v>28</v>
@@ -5934,10 +5924,10 @@
         <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="J168">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K168">
         <v>203</v>
@@ -5951,13 +5941,13 @@
         <v>7</v>
       </c>
       <c r="C169" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D169" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="E169" s="1">
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="G169" t="s">
         <v>28</v>
@@ -5966,10 +5956,10 @@
         <v>7</v>
       </c>
       <c r="I169">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="J169">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="K169">
         <v>9</v>
@@ -6058,7 +6048,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E173" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="G173" t="s">
         <v>29</v>
@@ -6084,10 +6074,10 @@
         <v>6</v>
       </c>
       <c r="C174" s="1">
-        <v>1.1900000000000001E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="D174" s="1">
-        <v>1.38E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E174" s="1">
         <v>5.1999999999999998E-2</v>
@@ -6099,10 +6089,10 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J174">
-        <v>307</v>
+        <v>931</v>
       </c>
       <c r="K174" s="2">
         <v>1173</v>
@@ -6122,7 +6112,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E175" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G175" t="s">
         <v>29</v>
@@ -6148,13 +6138,13 @@
         <v>2</v>
       </c>
       <c r="C176" s="1">
-        <v>5.2999999999999998E-4</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D176" s="1">
-        <v>4.8999999999999998E-4</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E176" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
@@ -6163,10 +6153,10 @@
         <v>2</v>
       </c>
       <c r="I176">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="J176">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="K176">
         <v>343</v>
@@ -6180,13 +6170,13 @@
         <v>7</v>
       </c>
       <c r="C177" s="1">
-        <v>1.14E-2</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="D177" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="E177" s="1">
-        <v>0</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -6195,10 +6185,10 @@
         <v>7</v>
       </c>
       <c r="I177">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="J177">
-        <v>931</v>
+        <v>11</v>
       </c>
       <c r="K177">
         <v>10</v>
@@ -6287,7 +6277,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="E181" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -6313,10 +6303,10 @@
         <v>6</v>
       </c>
       <c r="C182" s="1">
-        <v>1.12E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D182" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E182" s="1">
         <v>4.2999999999999997E-2</v>
@@ -6327,11 +6317,11 @@
       <c r="H182" t="s">
         <v>6</v>
       </c>
-      <c r="I182">
-        <v>817</v>
-      </c>
-      <c r="J182">
-        <v>998</v>
+      <c r="I182" s="2">
+        <v>1101</v>
+      </c>
+      <c r="J182" s="2">
+        <v>2299</v>
       </c>
       <c r="K182" s="2">
         <v>3052</v>
@@ -6351,7 +6341,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="E183" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G183" t="s">
         <v>30</v>
@@ -6377,13 +6367,13 @@
         <v>2</v>
       </c>
       <c r="C184" s="1">
-        <v>2.16E-3</v>
+        <v>1.12E-2</v>
       </c>
       <c r="D184" s="1">
-        <v>2.2399999999999998E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E184" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -6392,10 +6382,10 @@
         <v>2</v>
       </c>
       <c r="I184">
-        <v>158</v>
+        <v>817</v>
       </c>
       <c r="J184">
-        <v>164</v>
+        <v>998</v>
       </c>
       <c r="K184" s="2">
         <v>1221</v>
@@ -6409,13 +6399,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>2.16E-3</v>
       </c>
       <c r="D185" s="1">
-        <v>3.1E-2</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="E185" s="1">
-        <v>0</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -6423,11 +6413,11 @@
       <c r="H185" t="s">
         <v>7</v>
       </c>
-      <c r="I185" s="2">
-        <v>1101</v>
-      </c>
-      <c r="J185" s="2">
-        <v>2299</v>
+      <c r="I185">
+        <v>158</v>
+      </c>
+      <c r="J185">
+        <v>164</v>
       </c>
       <c r="K185">
         <v>35</v>
@@ -6437,8 +6427,6 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -6518,7 +6506,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E189" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="G189" t="s">
         <v>31</v>
@@ -6544,10 +6532,10 @@
         <v>6</v>
       </c>
       <c r="C190" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.03E-2</v>
       </c>
       <c r="D190" s="1">
-        <v>6.7999999999999996E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E190" s="1">
         <v>2.7E-2</v>
@@ -6559,10 +6547,10 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="J190">
-        <v>226</v>
+        <v>664</v>
       </c>
       <c r="K190">
         <v>884</v>
@@ -6582,7 +6570,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="E191" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -6608,13 +6596,13 @@
         <v>2</v>
       </c>
       <c r="C192" s="1">
-        <v>4.4999999999999999E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D192" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E192" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -6623,10 +6611,10 @@
         <v>2</v>
       </c>
       <c r="I192">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="J192">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="K192">
         <v>281</v>
@@ -6640,13 +6628,13 @@
         <v>7</v>
       </c>
       <c r="C193" s="1">
-        <v>1.03E-2</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="D193" s="1">
-        <v>0.02</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E193" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
@@ -6655,10 +6643,10 @@
         <v>7</v>
       </c>
       <c r="I193">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="J193">
-        <v>664</v>
+        <v>10</v>
       </c>
       <c r="K193">
         <v>5</v>
@@ -6773,10 +6761,10 @@
         <v>6</v>
       </c>
       <c r="C198" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="D198" s="1">
-        <v>1.12E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E198" s="1">
         <v>1.7999999999999999E-2</v>
@@ -6788,10 +6776,10 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J198">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="K198">
         <v>279</v>
@@ -6811,7 +6799,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="E199" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -6837,13 +6825,13 @@
         <v>2</v>
       </c>
       <c r="C200" s="1">
-        <v>1.9000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="D200" s="1">
-        <v>1.8000000000000001E-4</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E200" s="1">
-        <v>1.6E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="G200" t="s">
         <v>32</v>
@@ -6852,10 +6840,10 @@
         <v>2</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="J200">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="K200">
         <v>256</v>
@@ -6869,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="C201" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D201" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="E201" s="1">
-        <v>0</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="G201" t="s">
         <v>32</v>
@@ -6884,10 +6872,10 @@
         <v>7</v>
       </c>
       <c r="I201">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J201">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -6976,7 +6964,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
       <c r="E205" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="G205" t="s">
         <v>34</v>
@@ -7002,10 +6990,10 @@
         <v>6</v>
       </c>
       <c r="C206" s="1">
-        <v>1.14E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="D206" s="1">
-        <v>1.23E-2</v>
+        <v>0.124</v>
       </c>
       <c r="E206" s="1">
         <v>0.14899999999999999</v>
@@ -7017,10 +7005,10 @@
         <v>6</v>
       </c>
       <c r="I206" s="2">
-        <v>5171</v>
+        <v>32418</v>
       </c>
       <c r="J206" s="2">
-        <v>5321</v>
+        <v>53702</v>
       </c>
       <c r="K206" s="2">
         <v>64499</v>
@@ -7040,7 +7028,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="E207" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="G207" t="s">
         <v>34</v>
@@ -7066,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="C208" s="1">
-        <v>1.5E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="D208" s="1">
-        <v>2.49E-3</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E208" s="1">
-        <v>1.4E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="G208" t="s">
         <v>34</v>
@@ -7080,11 +7068,11 @@
       <c r="H208" t="s">
         <v>2</v>
       </c>
-      <c r="I208">
-        <v>683</v>
+      <c r="I208" s="2">
+        <v>5171</v>
       </c>
       <c r="J208" s="2">
-        <v>1077</v>
+        <v>5321</v>
       </c>
       <c r="K208" s="2">
         <v>6189</v>
@@ -7098,13 +7086,13 @@
         <v>7</v>
       </c>
       <c r="C209" s="1">
-        <v>7.1199999999999999E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D209" s="1">
-        <v>0.124</v>
+        <v>2.49E-3</v>
       </c>
       <c r="E209" s="1">
-        <v>0</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="G209" t="s">
         <v>34</v>
@@ -7112,11 +7100,11 @@
       <c r="H209" t="s">
         <v>7</v>
       </c>
-      <c r="I209" s="2">
-        <v>32418</v>
+      <c r="I209">
+        <v>683</v>
       </c>
       <c r="J209" s="2">
-        <v>53702</v>
+        <v>1077</v>
       </c>
       <c r="K209">
         <v>92</v>
@@ -7126,7 +7114,6 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -7207,7 +7194,7 @@
         <v>2E-3</v>
       </c>
       <c r="E213" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G213" t="s">
         <v>33</v>
@@ -7233,10 +7220,10 @@
         <v>6</v>
       </c>
       <c r="C214" s="1">
-        <v>7.3000000000000001E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D214" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E214" s="1">
         <v>2.5000000000000001E-2</v>
@@ -7248,10 +7235,10 @@
         <v>6</v>
       </c>
       <c r="I214">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="J214">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K214">
         <v>781</v>
@@ -7271,7 +7258,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E215" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G215" t="s">
         <v>33</v>
@@ -7297,13 +7284,13 @@
         <v>2</v>
       </c>
       <c r="C216" s="1">
-        <v>3.2000000000000003E-4</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="D216" s="1">
-        <v>9.7999999999999997E-4</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="E216" s="1">
-        <v>0.02</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G216" t="s">
         <v>33</v>
@@ -7312,10 +7299,10 @@
         <v>2</v>
       </c>
       <c r="I216">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="J216">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="K216">
         <v>638</v>
@@ -7329,13 +7316,13 @@
         <v>7</v>
       </c>
       <c r="C217" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="D217" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="E217" s="1">
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -7344,10 +7331,10 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="J217">
-        <v>538</v>
+        <v>31</v>
       </c>
       <c r="K217">
         <v>6</v>
@@ -7436,7 +7423,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E221" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G221" t="s">
         <v>35</v>
@@ -7462,10 +7449,10 @@
         <v>6</v>
       </c>
       <c r="C222" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D222" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E222" s="1">
         <v>2.9000000000000001E-2</v>
@@ -7477,10 +7464,10 @@
         <v>6</v>
       </c>
       <c r="I222">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="J222">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="K222">
         <v>440</v>
@@ -7500,7 +7487,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="E223" s="1">
-        <v>1.2E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G223" t="s">
         <v>35</v>
@@ -7526,13 +7513,13 @@
         <v>2</v>
       </c>
       <c r="C224" s="1">
-        <v>4.8999999999999998E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D224" s="1">
-        <v>2.7E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E224" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G224" t="s">
         <v>35</v>
@@ -7541,10 +7528,10 @@
         <v>2</v>
       </c>
       <c r="I224">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="J224">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="K224">
         <v>141</v>
@@ -7558,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="1">
-        <v>8.2000000000000007E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="D225" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.7E-4</v>
       </c>
       <c r="E225" s="1">
-        <v>0</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="G225" t="s">
         <v>35</v>
@@ -7573,10 +7560,10 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="J225">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -7665,7 +7652,7 @@
         <v>1.49E-2</v>
       </c>
       <c r="E229" s="1">
-        <v>1.9E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="G229" t="s">
         <v>36</v>
@@ -7691,10 +7678,10 @@
         <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>7.7999999999999996E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="D230" s="1">
-        <v>1.34E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E230" s="1">
         <v>4.5999999999999999E-2</v>
@@ -7706,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="I230" s="2">
-        <v>1489</v>
+        <v>3320</v>
       </c>
       <c r="J230" s="2">
-        <v>2970</v>
+        <v>8597</v>
       </c>
       <c r="K230" s="2">
         <v>11277</v>
@@ -7755,13 +7742,13 @@
         <v>2</v>
       </c>
       <c r="C232" s="1">
-        <v>1.2800000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="D232" s="1">
-        <v>1.9400000000000001E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E232" s="1">
-        <v>1.4E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="G232" t="s">
         <v>36</v>
@@ -7769,11 +7756,11 @@
       <c r="H232" t="s">
         <v>2</v>
       </c>
-      <c r="I232">
-        <v>244</v>
-      </c>
-      <c r="J232">
-        <v>430</v>
+      <c r="I232" s="2">
+        <v>1489</v>
+      </c>
+      <c r="J232" s="2">
+        <v>2970</v>
       </c>
       <c r="K232" s="2">
         <v>3445</v>
@@ -7787,13 +7774,13 @@
         <v>7</v>
       </c>
       <c r="C233" s="1">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="D233" s="1">
-        <v>3.9E-2</v>
+        <v>1.9400000000000001E-3</v>
       </c>
       <c r="E233" s="1">
-        <v>0</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="G233" t="s">
         <v>36</v>
@@ -7801,11 +7788,11 @@
       <c r="H233" t="s">
         <v>7</v>
       </c>
-      <c r="I233" s="2">
-        <v>3320</v>
-      </c>
-      <c r="J233" s="2">
-        <v>8597</v>
+      <c r="I233">
+        <v>244</v>
+      </c>
+      <c r="J233">
+        <v>430</v>
       </c>
       <c r="K233">
         <v>88</v>
@@ -7815,8 +7802,6 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
@@ -7896,7 +7881,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="E237" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="G237" t="s">
         <v>37</v>
@@ -7922,10 +7907,10 @@
         <v>6</v>
       </c>
       <c r="C238" s="1">
-        <v>8.8000000000000005E-3</v>
+        <v>1.43E-2</v>
       </c>
       <c r="D238" s="1">
-        <v>1.55E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E238" s="1">
         <v>4.3999999999999997E-2</v>
@@ -7936,11 +7921,11 @@
       <c r="H238" t="s">
         <v>6</v>
       </c>
-      <c r="I238">
-        <v>790</v>
+      <c r="I238" s="2">
+        <v>1284</v>
       </c>
       <c r="J238" s="2">
-        <v>1494</v>
+        <v>3647</v>
       </c>
       <c r="K238" s="2">
         <v>4297</v>
@@ -7960,7 +7945,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="E239" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="G239" t="s">
         <v>37</v>
@@ -7986,13 +7971,13 @@
         <v>2</v>
       </c>
       <c r="C240" s="1">
-        <v>6.7000000000000002E-4</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="D240" s="1">
-        <v>9.1E-4</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E240" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G240" t="s">
         <v>37</v>
@@ -8001,10 +7986,10 @@
         <v>2</v>
       </c>
       <c r="I240">
-        <v>60</v>
-      </c>
-      <c r="J240">
-        <v>88</v>
+        <v>790</v>
+      </c>
+      <c r="J240" s="2">
+        <v>1494</v>
       </c>
       <c r="K240" s="2">
         <v>1712</v>
@@ -8018,13 +8003,13 @@
         <v>7</v>
       </c>
       <c r="C241" s="1">
-        <v>1.43E-2</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="D241" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>9.1E-4</v>
       </c>
       <c r="E241" s="1">
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="G241" t="s">
         <v>37</v>
@@ -8032,11 +8017,11 @@
       <c r="H241" t="s">
         <v>7</v>
       </c>
-      <c r="I241" s="2">
-        <v>1284</v>
-      </c>
-      <c r="J241" s="2">
-        <v>3647</v>
+      <c r="I241">
+        <v>60</v>
+      </c>
+      <c r="J241">
+        <v>88</v>
       </c>
       <c r="K241">
         <v>31</v>
@@ -8046,8 +8031,6 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -8127,7 +8110,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="E245" s="1">
-        <v>1.6E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="G245" t="s">
         <v>38</v>
@@ -8153,10 +8136,10 @@
         <v>6</v>
       </c>
       <c r="C246" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="D246" s="1">
-        <v>9.1999999999999998E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E246" s="1">
         <v>3.2000000000000001E-2</v>
@@ -8168,10 +8151,10 @@
         <v>6</v>
       </c>
       <c r="I246">
-        <v>297</v>
-      </c>
-      <c r="J246">
-        <v>428</v>
+        <v>492</v>
+      </c>
+      <c r="J246" s="2">
+        <v>1189</v>
       </c>
       <c r="K246" s="2">
         <v>1515</v>
@@ -8191,7 +8174,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="E247" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="G247" t="s">
         <v>38</v>
@@ -8217,13 +8200,13 @@
         <v>2</v>
       </c>
       <c r="C248" s="1">
-        <v>1.3600000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D248" s="1">
-        <v>1.07E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="E248" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G248" t="s">
         <v>38</v>
@@ -8232,10 +8215,10 @@
         <v>2</v>
       </c>
       <c r="I248">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="J248">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="K248">
         <v>530</v>
@@ -8249,13 +8232,13 @@
         <v>7</v>
       </c>
       <c r="C249" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="D249" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>1.07E-3</v>
       </c>
       <c r="E249" s="1">
-        <v>0</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G249" t="s">
         <v>38</v>
@@ -8264,10 +8247,10 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <v>492</v>
-      </c>
-      <c r="J249" s="2">
-        <v>1189</v>
+        <v>58</v>
+      </c>
+      <c r="J249">
+        <v>50</v>
       </c>
       <c r="K249">
         <v>21</v>
@@ -8277,7 +8260,6 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="J250" s="2"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -8357,7 +8339,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="E253" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -8383,10 +8365,10 @@
         <v>6</v>
       </c>
       <c r="C254" s="1">
-        <v>5.8999999999999999E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="D254" s="1">
-        <v>9.2999999999999992E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E254" s="1">
         <v>3.7999999999999999E-2</v>
@@ -8397,11 +8379,11 @@
       <c r="H254" t="s">
         <v>6</v>
       </c>
-      <c r="I254">
-        <v>543</v>
+      <c r="I254" s="2">
+        <v>1017</v>
       </c>
       <c r="J254" s="2">
-        <v>1192</v>
+        <v>3801</v>
       </c>
       <c r="K254" s="2">
         <v>5365</v>
@@ -8421,7 +8403,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="E255" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="G255" t="s">
         <v>39</v>
@@ -8447,13 +8429,13 @@
         <v>2</v>
       </c>
       <c r="C256" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="D256" s="1">
-        <v>9.1E-4</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E256" s="1">
-        <v>1.2E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G256" t="s">
         <v>39</v>
@@ -8462,10 +8444,10 @@
         <v>2</v>
       </c>
       <c r="I256">
-        <v>37</v>
-      </c>
-      <c r="J256">
-        <v>116</v>
+        <v>543</v>
+      </c>
+      <c r="J256" s="2">
+        <v>1192</v>
       </c>
       <c r="K256" s="2">
         <v>1628</v>
@@ -8479,13 +8461,13 @@
         <v>7</v>
       </c>
       <c r="C257" s="1">
-        <v>1.11E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D257" s="1">
-        <v>0.03</v>
+        <v>9.1E-4</v>
       </c>
       <c r="E257" s="1">
-        <v>0</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G257" t="s">
         <v>39</v>
@@ -8493,11 +8475,11 @@
       <c r="H257" t="s">
         <v>7</v>
       </c>
-      <c r="I257" s="2">
-        <v>1017</v>
-      </c>
-      <c r="J257" s="2">
-        <v>3801</v>
+      <c r="I257">
+        <v>37</v>
+      </c>
+      <c r="J257">
+        <v>116</v>
       </c>
       <c r="K257">
         <v>61</v>
@@ -8507,8 +8489,6 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -8588,7 +8568,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E261" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G261" t="s">
         <v>40</v>
@@ -8614,10 +8594,10 @@
         <v>6</v>
       </c>
       <c r="C262" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D262" s="1">
-        <v>7.9000000000000008E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E262" s="1">
         <v>2.1999999999999999E-2</v>
@@ -8629,10 +8609,10 @@
         <v>6</v>
       </c>
       <c r="I262">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="J262">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K262">
         <v>241</v>
@@ -8678,13 +8658,13 @@
         <v>2</v>
       </c>
       <c r="C264" s="1">
-        <v>2.9E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D264" s="1">
-        <v>6.6E-4</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E264" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="G264" t="s">
         <v>40</v>
@@ -8693,10 +8673,10 @@
         <v>2</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="J264">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="K264">
         <v>122</v>
@@ -8710,10 +8690,10 @@
         <v>7</v>
       </c>
       <c r="C265" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.9E-4</v>
       </c>
       <c r="D265" s="1">
-        <v>1.6E-2</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E265" s="1">
         <v>0</v>
@@ -8725,10 +8705,10 @@
         <v>7</v>
       </c>
       <c r="I265">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="J265">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="K265">
         <v>0</v>
@@ -8843,10 +8823,10 @@
         <v>6</v>
       </c>
       <c r="C270" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D270" s="1">
-        <v>8.6E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E270" s="1">
         <v>1.4E-2</v>
@@ -8858,10 +8838,10 @@
         <v>6</v>
       </c>
       <c r="I270">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="J270">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K270">
         <v>349</v>
@@ -8881,7 +8861,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E271" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="G271" t="s">
         <v>41</v>
@@ -8907,13 +8887,13 @@
         <v>2</v>
       </c>
       <c r="C272" s="1">
-        <v>1.9000000000000001E-4</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="D272" s="1">
-        <v>7.5000000000000002E-4</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E272" s="1">
-        <v>1.2E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G272" t="s">
         <v>41</v>
@@ -8922,10 +8902,10 @@
         <v>2</v>
       </c>
       <c r="I272">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="J272">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="K272">
         <v>297</v>
@@ -8939,13 +8919,13 @@
         <v>7</v>
       </c>
       <c r="C273" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D273" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E273" s="1">
-        <v>1E-3</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="G273" t="s">
         <v>41</v>
@@ -8954,10 +8934,10 @@
         <v>7</v>
       </c>
       <c r="I273">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="J273">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="K273">
         <v>15</v>
@@ -9046,7 +9026,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="E277" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G277" t="s">
         <v>42</v>
@@ -9072,10 +9052,10 @@
         <v>6</v>
       </c>
       <c r="C278" s="1">
-        <v>1.1299999999999999E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="D278" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E278" s="1">
         <v>2.4E-2</v>
@@ -9087,10 +9067,10 @@
         <v>6</v>
       </c>
       <c r="I278">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="J278">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K278">
         <v>946</v>
@@ -9110,7 +9090,7 @@
         <v>8.6E-3</v>
       </c>
       <c r="E279" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G279" t="s">
         <v>42</v>
@@ -9136,13 +9116,13 @@
         <v>2</v>
       </c>
       <c r="C280" s="1">
-        <v>5.96E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D280" s="1">
-        <v>5.28E-3</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E280" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="G280" t="s">
         <v>42</v>
@@ -9151,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="I280">
-        <v>233</v>
+        <v>443</v>
       </c>
       <c r="J280">
-        <v>209</v>
+        <v>743</v>
       </c>
       <c r="K280">
         <v>809</v>
@@ -9168,13 +9148,13 @@
         <v>7</v>
       </c>
       <c r="C281" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>5.96E-3</v>
       </c>
       <c r="D281" s="1">
-        <v>1.9E-2</v>
+        <v>5.28E-3</v>
       </c>
       <c r="E281" s="1">
-        <v>0</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G281" t="s">
         <v>42</v>
@@ -9183,10 +9163,10 @@
         <v>7</v>
       </c>
       <c r="I281">
-        <v>566</v>
+        <v>233</v>
       </c>
       <c r="J281">
-        <v>735</v>
+        <v>209</v>
       </c>
       <c r="K281">
         <v>11</v>
@@ -9275,7 +9255,7 @@
         <v>2.87E-2</v>
       </c>
       <c r="E285" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="G285" t="s">
         <v>43</v>
@@ -9301,10 +9281,10 @@
         <v>6</v>
       </c>
       <c r="C286" s="1">
-        <v>9.7999999999999997E-3</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="D286" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E286" s="1">
         <v>5.6000000000000001E-2</v>
@@ -9316,10 +9296,10 @@
         <v>6</v>
       </c>
       <c r="I286" s="2">
-        <v>4765</v>
+        <v>14826</v>
       </c>
       <c r="J286" s="2">
-        <v>4360</v>
+        <v>18051</v>
       </c>
       <c r="K286" s="2">
         <v>21963</v>
@@ -9339,7 +9319,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E287" s="1">
-        <v>2E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G287" t="s">
         <v>43</v>
@@ -9365,13 +9345,13 @@
         <v>2</v>
       </c>
       <c r="C288" s="1">
-        <v>2.16E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="D288" s="1">
-        <v>3.1199999999999999E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="E288" s="1">
-        <v>1.4E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="G288" t="s">
         <v>43</v>
@@ -9380,10 +9360,10 @@
         <v>2</v>
       </c>
       <c r="I288" s="2">
-        <v>1049</v>
+        <v>4765</v>
       </c>
       <c r="J288" s="2">
-        <v>1072</v>
+        <v>4360</v>
       </c>
       <c r="K288" s="2">
         <v>5369</v>
@@ -9397,13 +9377,13 @@
         <v>7</v>
       </c>
       <c r="C289" s="1">
-        <v>3.0599999999999999E-2</v>
+        <v>2.16E-3</v>
       </c>
       <c r="D289" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="E289" s="1">
-        <v>0</v>
+        <v>2.7E-4</v>
       </c>
       <c r="G289" t="s">
         <v>43</v>
@@ -9412,10 +9392,10 @@
         <v>7</v>
       </c>
       <c r="I289" s="2">
-        <v>14826</v>
+        <v>1049</v>
       </c>
       <c r="J289" s="2">
-        <v>18051</v>
+        <v>1072</v>
       </c>
       <c r="K289">
         <v>106</v>
@@ -9506,7 +9486,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="E293" s="1">
-        <v>0.01</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G293" t="s">
         <v>44</v>
@@ -9532,10 +9512,10 @@
         <v>6</v>
       </c>
       <c r="C294" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D294" s="1">
-        <v>0.01</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E294" s="1">
         <v>2.1999999999999999E-2</v>
@@ -9546,11 +9526,11 @@
       <c r="H294" t="s">
         <v>6</v>
       </c>
-      <c r="I294">
-        <v>878</v>
+      <c r="I294" s="2">
+        <v>1747</v>
       </c>
       <c r="J294" s="2">
-        <v>1530</v>
+        <v>2760</v>
       </c>
       <c r="K294" s="2">
         <v>3442</v>
@@ -9570,7 +9550,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="E295" s="1">
-        <v>2E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G295" t="s">
         <v>44</v>
@@ -9596,13 +9576,13 @@
         <v>2</v>
       </c>
       <c r="C296" s="1">
-        <v>6.2E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D296" s="1">
-        <v>8.8000000000000003E-4</v>
+        <v>0.01</v>
       </c>
       <c r="E296" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="G296" t="s">
         <v>44</v>
@@ -9611,10 +9591,10 @@
         <v>2</v>
       </c>
       <c r="I296">
-        <v>91</v>
-      </c>
-      <c r="J296">
-        <v>135</v>
+        <v>878</v>
+      </c>
+      <c r="J296" s="2">
+        <v>1530</v>
       </c>
       <c r="K296" s="2">
         <v>1751</v>
@@ -9628,13 +9608,13 @@
         <v>7</v>
       </c>
       <c r="C297" s="1">
-        <v>1.1900000000000001E-2</v>
+        <v>6.2E-4</v>
       </c>
       <c r="D297" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="E297" s="1">
-        <v>0</v>
+        <v>3.1E-4</v>
       </c>
       <c r="G297" t="s">
         <v>44</v>
@@ -9642,11 +9622,11 @@
       <c r="H297" t="s">
         <v>7</v>
       </c>
-      <c r="I297" s="2">
-        <v>1747</v>
-      </c>
-      <c r="J297" s="2">
-        <v>2760</v>
+      <c r="I297">
+        <v>91</v>
+      </c>
+      <c r="J297">
+        <v>135</v>
       </c>
       <c r="K297">
         <v>48</v>
@@ -9656,8 +9636,6 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -9737,7 +9715,7 @@
         <v>3.15E-2</v>
       </c>
       <c r="E301" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="G301" t="s">
         <v>45</v>
@@ -9763,10 +9741,10 @@
         <v>6</v>
       </c>
       <c r="C302" s="1">
-        <v>1.29E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="D302" s="1">
-        <v>2.18E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E302" s="1">
         <v>7.8E-2</v>
@@ -9778,10 +9756,10 @@
         <v>6</v>
       </c>
       <c r="I302">
-        <v>346</v>
-      </c>
-      <c r="J302">
-        <v>502</v>
+        <v>433</v>
+      </c>
+      <c r="J302" s="2">
+        <v>1067</v>
       </c>
       <c r="K302" s="2">
         <v>1831</v>
@@ -9801,7 +9779,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="E303" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="G303" t="s">
         <v>45</v>
@@ -9827,13 +9805,13 @@
         <v>2</v>
       </c>
       <c r="C304" s="1">
-        <v>3.5100000000000001E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="D304" s="1">
-        <v>4.9899999999999996E-3</v>
+        <v>2.18E-2</v>
       </c>
       <c r="E304" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="G304" t="s">
         <v>45</v>
@@ -9842,10 +9820,10 @@
         <v>2</v>
       </c>
       <c r="I304">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="J304">
-        <v>115</v>
+        <v>502</v>
       </c>
       <c r="K304">
         <v>602</v>
@@ -9859,13 +9837,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="1">
-        <v>1.6199999999999999E-2</v>
+        <v>3.5100000000000001E-3</v>
       </c>
       <c r="D305" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>4.9899999999999996E-3</v>
       </c>
       <c r="E305" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G305" t="s">
         <v>45</v>
@@ -9874,10 +9852,10 @@
         <v>7</v>
       </c>
       <c r="I305">
-        <v>433</v>
-      </c>
-      <c r="J305" s="2">
-        <v>1067</v>
+        <v>94</v>
+      </c>
+      <c r="J305">
+        <v>115</v>
       </c>
       <c r="K305">
         <v>21</v>
@@ -9887,7 +9865,6 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
-      <c r="J306" s="2"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -9967,7 +9944,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E309" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G309" t="s">
         <v>46</v>
@@ -9993,10 +9970,10 @@
         <v>6</v>
       </c>
       <c r="C310" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="D310" s="1">
-        <v>8.8000000000000005E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E310" s="1">
         <v>2.9000000000000001E-2</v>
@@ -10008,10 +9985,10 @@
         <v>6</v>
       </c>
       <c r="I310">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="J310">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="K310">
         <v>632</v>
@@ -10031,7 +10008,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="E311" s="1">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G311" t="s">
         <v>46</v>
@@ -10057,13 +10034,13 @@
         <v>2</v>
       </c>
       <c r="C312" s="1">
-        <v>1.67E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D312" s="1">
-        <v>1.8E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E312" s="1">
-        <v>0.01</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G312" t="s">
         <v>46</v>
@@ -10072,10 +10049,10 @@
         <v>2</v>
       </c>
       <c r="I312">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="J312">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="K312">
         <v>230</v>
@@ -10089,13 +10066,13 @@
         <v>7</v>
       </c>
       <c r="C313" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>1.67E-3</v>
       </c>
       <c r="D313" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E313" s="1">
-        <v>0</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G313" t="s">
         <v>46</v>
@@ -10104,10 +10081,10 @@
         <v>7</v>
       </c>
       <c r="I313">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="J313">
-        <v>492</v>
+        <v>41</v>
       </c>
       <c r="K313">
         <v>1</v>
@@ -10196,7 +10173,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="E317" s="1">
-        <v>1.4E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="G317" t="s">
         <v>47</v>
@@ -10222,10 +10199,10 @@
         <v>6</v>
       </c>
       <c r="C318" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D318" s="1">
-        <v>1.49E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E318" s="1">
         <v>3.2000000000000001E-2</v>
@@ -10237,10 +10214,10 @@
         <v>6</v>
       </c>
       <c r="I318" s="2">
-        <v>1148</v>
+        <v>1739</v>
       </c>
       <c r="J318" s="2">
-        <v>1958</v>
+        <v>3418</v>
       </c>
       <c r="K318" s="2">
         <v>4171</v>
@@ -10260,7 +10237,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="E319" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="G319" t="s">
         <v>47</v>
@@ -10286,13 +10263,13 @@
         <v>2</v>
       </c>
       <c r="C320" s="1">
-        <v>1.0300000000000001E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D320" s="1">
-        <v>1.25E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E320" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G320" t="s">
         <v>47</v>
@@ -10300,11 +10277,11 @@
       <c r="H320" t="s">
         <v>2</v>
       </c>
-      <c r="I320">
-        <v>130</v>
-      </c>
-      <c r="J320">
-        <v>164</v>
+      <c r="I320" s="2">
+        <v>1148</v>
+      </c>
+      <c r="J320" s="2">
+        <v>1958</v>
       </c>
       <c r="K320" s="2">
         <v>2298</v>
@@ -10318,13 +10295,13 @@
         <v>7</v>
       </c>
       <c r="C321" s="1">
-        <v>1.38E-2</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="D321" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>1.25E-3</v>
       </c>
       <c r="E321" s="1">
-        <v>0</v>
+        <v>3.1E-4</v>
       </c>
       <c r="G321" t="s">
         <v>47</v>
@@ -10332,11 +10309,11 @@
       <c r="H321" t="s">
         <v>7</v>
       </c>
-      <c r="I321" s="2">
-        <v>1739</v>
-      </c>
-      <c r="J321" s="2">
-        <v>3418</v>
+      <c r="I321">
+        <v>130</v>
+      </c>
+      <c r="J321">
+        <v>164</v>
       </c>
       <c r="K321">
         <v>40</v>
@@ -10346,8 +10323,6 @@
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="2"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -10427,7 +10402,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E325" s="1">
-        <v>2E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="G325" t="s">
         <v>48</v>
@@ -10453,10 +10428,10 @@
         <v>6</v>
       </c>
       <c r="C326" s="1">
-        <v>5.1000000000000004E-3</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D326" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E326" s="1">
         <v>2.4E-2</v>
@@ -10468,10 +10443,10 @@
         <v>6</v>
       </c>
       <c r="I326">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="J326">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="K326">
         <v>205</v>
@@ -10517,13 +10492,13 @@
         <v>2</v>
       </c>
       <c r="C328" s="1">
-        <v>1E-4</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="D328" s="1">
-        <v>4.4000000000000002E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E328" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G328" t="s">
         <v>48</v>
@@ -10532,10 +10507,10 @@
         <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="J328">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="K328">
         <v>65</v>
@@ -10549,13 +10524,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="1">
-        <v>1.01E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="D329" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="E329" s="1">
-        <v>0</v>
+        <v>1.2E-4</v>
       </c>
       <c r="G329" t="s">
         <v>48</v>
@@ -10564,10 +10539,10 @@
         <v>7</v>
       </c>
       <c r="I329">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="J329">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="K329">
         <v>1</v>
@@ -10656,7 +10631,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E333" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G333" t="s">
         <v>49</v>
@@ -10682,10 +10657,10 @@
         <v>6</v>
       </c>
       <c r="C334" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="D334" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E334" s="1">
         <v>2.3E-2</v>
@@ -10697,10 +10672,10 @@
         <v>6</v>
       </c>
       <c r="I334">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="J334">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="K334">
         <v>459</v>
@@ -10720,7 +10695,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E335" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G335" t="s">
         <v>49</v>
@@ -10746,13 +10721,13 @@
         <v>2</v>
       </c>
       <c r="C336" s="1">
-        <v>1.3999999999999999E-4</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="D336" s="1">
-        <v>3.8999999999999999E-4</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E336" s="1">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="G336" t="s">
         <v>49</v>
@@ -10761,10 +10736,10 @@
         <v>2</v>
       </c>
       <c r="I336">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="J336">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="K336">
         <v>196</v>
@@ -10778,13 +10753,13 @@
         <v>7</v>
       </c>
       <c r="C337" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="D337" s="1">
-        <v>1.6E-2</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="E337" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G337" t="s">
         <v>49</v>
@@ -10793,10 +10768,10 @@
         <v>7</v>
       </c>
       <c r="I337">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="J337">
-        <v>332</v>
+        <v>8</v>
       </c>
       <c r="K337">
         <v>3</v>
@@ -10885,7 +10860,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E341" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="G341" t="s">
         <v>50</v>
@@ -10911,10 +10886,10 @@
         <v>6</v>
       </c>
       <c r="C342" s="1">
-        <v>1.9099999999999999E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="D342" s="1">
-        <v>2.8799999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E342" s="1">
         <v>0.04</v>
@@ -10926,10 +10901,10 @@
         <v>6</v>
       </c>
       <c r="I342">
-        <v>448</v>
+        <v>642</v>
       </c>
       <c r="J342">
-        <v>698</v>
+        <v>820</v>
       </c>
       <c r="K342">
         <v>952</v>
@@ -10949,7 +10924,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E343" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -10975,13 +10950,13 @@
         <v>2</v>
       </c>
       <c r="C344" s="1">
-        <v>3.4000000000000002E-4</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="D344" s="1">
-        <v>0</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E344" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="G344" t="s">
         <v>50</v>
@@ -10990,10 +10965,10 @@
         <v>2</v>
       </c>
       <c r="I344">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="K344">
         <v>825</v>
@@ -11007,13 +10982,13 @@
         <v>7</v>
       </c>
       <c r="C345" s="1">
-        <v>2.7400000000000001E-2</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="D345" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E345" s="1">
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="G345" t="s">
         <v>50</v>
@@ -11022,10 +10997,10 @@
         <v>7</v>
       </c>
       <c r="I345">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="J345">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="K345">
         <v>4</v>
@@ -11114,7 +11089,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="E349" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="G349" t="s">
         <v>51</v>
@@ -11140,10 +11115,10 @@
         <v>6</v>
       </c>
       <c r="C350" s="1">
-        <v>1.1299999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="D350" s="1">
-        <v>1.9400000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E350" s="1">
         <v>0.10199999999999999</v>
@@ -11154,11 +11129,11 @@
       <c r="H350" t="s">
         <v>6</v>
       </c>
-      <c r="I350">
-        <v>762</v>
-      </c>
-      <c r="J350">
-        <v>695</v>
+      <c r="I350" s="2">
+        <v>3425</v>
+      </c>
+      <c r="J350" s="2">
+        <v>3309</v>
       </c>
       <c r="K350" s="2">
         <v>4770</v>
@@ -11178,7 +11153,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="E351" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="G351" t="s">
         <v>51</v>
@@ -11204,10 +11179,10 @@
         <v>2</v>
       </c>
       <c r="C352" s="1">
-        <v>6.4000000000000005E-4</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D352" s="1">
-        <v>3.7599999999999999E-3</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="E352" s="1">
         <v>0.02</v>
@@ -11219,10 +11194,10 @@
         <v>2</v>
       </c>
       <c r="I352">
-        <v>43</v>
+        <v>762</v>
       </c>
       <c r="J352">
-        <v>135</v>
+        <v>695</v>
       </c>
       <c r="K352">
         <v>936</v>
@@ -11236,13 +11211,13 @@
         <v>7</v>
       </c>
       <c r="C353" s="1">
-        <v>5.0900000000000001E-2</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="D353" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="E353" s="1">
-        <v>0</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G353" t="s">
         <v>51</v>
@@ -11250,11 +11225,11 @@
       <c r="H353" t="s">
         <v>7</v>
       </c>
-      <c r="I353" s="2">
-        <v>3425</v>
-      </c>
-      <c r="J353" s="2">
-        <v>3309</v>
+      <c r="I353">
+        <v>43</v>
+      </c>
+      <c r="J353">
+        <v>135</v>
       </c>
       <c r="K353">
         <v>13</v>
@@ -11264,8 +11239,6 @@
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
@@ -11345,7 +11318,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="E357" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="G357" t="s">
         <v>52</v>
@@ -11371,10 +11344,10 @@
         <v>6</v>
       </c>
       <c r="C358" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D358" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E358" s="1">
         <v>6.3E-2</v>
@@ -11385,11 +11358,11 @@
       <c r="H358" t="s">
         <v>6</v>
       </c>
-      <c r="I358">
-        <v>342</v>
-      </c>
-      <c r="J358">
-        <v>612</v>
+      <c r="I358" s="2">
+        <v>1346</v>
+      </c>
+      <c r="J358" s="2">
+        <v>2648</v>
       </c>
       <c r="K358" s="2">
         <v>3332</v>
@@ -11409,7 +11382,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E359" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G359" t="s">
         <v>52</v>
@@ -11435,13 +11408,13 @@
         <v>2</v>
       </c>
       <c r="C360" s="1">
-        <v>1.16E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D360" s="1">
-        <v>1.42E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E360" s="1">
-        <v>1.4E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="G360" t="s">
         <v>52</v>
@@ -11450,10 +11423,10 @@
         <v>2</v>
       </c>
       <c r="I360">
-        <v>56</v>
+        <v>342</v>
       </c>
       <c r="J360">
-        <v>75</v>
+        <v>612</v>
       </c>
       <c r="K360">
         <v>751</v>
@@ -11467,13 +11440,13 @@
         <v>7</v>
       </c>
       <c r="C361" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>1.16E-3</v>
       </c>
       <c r="D361" s="1">
-        <v>0.05</v>
+        <v>1.42E-3</v>
       </c>
       <c r="E361" s="1">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G361" t="s">
         <v>52</v>
@@ -11481,11 +11454,11 @@
       <c r="H361" t="s">
         <v>7</v>
       </c>
-      <c r="I361" s="2">
-        <v>1346</v>
-      </c>
-      <c r="J361" s="2">
-        <v>2648</v>
+      <c r="I361">
+        <v>56</v>
+      </c>
+      <c r="J361">
+        <v>75</v>
       </c>
       <c r="K361">
         <v>21</v>
@@ -11495,8 +11468,6 @@
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
@@ -11602,10 +11573,10 @@
         <v>6</v>
       </c>
       <c r="C366" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D366" s="1">
-        <v>6.8999999999999999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E366" s="1">
         <v>1.9E-2</v>
@@ -11617,10 +11588,10 @@
         <v>6</v>
       </c>
       <c r="I366">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="J366">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="K366">
         <v>193</v>
@@ -11666,13 +11637,13 @@
         <v>2</v>
       </c>
       <c r="C368" s="1">
-        <v>3.8000000000000002E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="D368" s="1">
-        <v>1.8699999999999999E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E368" s="1">
-        <v>1.2E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="G368" t="s">
         <v>53</v>
@@ -11681,10 +11652,10 @@
         <v>2</v>
       </c>
       <c r="I368">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="J368">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="K368">
         <v>119</v>
@@ -11698,13 +11669,13 @@
         <v>7</v>
       </c>
       <c r="C369" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="D369" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="E369" s="1">
-        <v>0</v>
+        <v>2.9E-4</v>
       </c>
       <c r="G369" t="s">
         <v>53</v>
@@ -11713,10 +11684,10 @@
         <v>7</v>
       </c>
       <c r="I369">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="J369">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="K369">
         <v>3</v>
@@ -11805,7 +11776,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E373" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G373" t="s">
         <v>54</v>
@@ -11831,10 +11802,10 @@
         <v>6</v>
       </c>
       <c r="C374" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="D374" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E374" s="1">
         <v>1.7000000000000001E-2</v>
@@ -11846,10 +11817,10 @@
         <v>6</v>
       </c>
       <c r="I374">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="J374">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="K374">
         <v>352</v>
@@ -11869,7 +11840,7 @@
         <v>1.9E-3</v>
       </c>
       <c r="E375" s="1">
-        <v>2E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G375" t="s">
         <v>54</v>
@@ -11895,13 +11866,13 @@
         <v>2</v>
       </c>
       <c r="C376" s="1">
-        <v>1.3999999999999999E-4</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="D376" s="1">
-        <v>7.2000000000000005E-4</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E376" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="G376" t="s">
         <v>54</v>
@@ -11910,10 +11881,10 @@
         <v>2</v>
       </c>
       <c r="I376">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="J376">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="K376">
         <v>151</v>
@@ -11927,13 +11898,13 @@
         <v>7</v>
       </c>
       <c r="C377" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="D377" s="1">
-        <v>1.2E-2</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="E377" s="1">
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="G377" t="s">
         <v>54</v>
@@ -11942,10 +11913,10 @@
         <v>7</v>
       </c>
       <c r="I377">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="J377">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="K377">
         <v>4</v>
@@ -12034,7 +12005,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="E381" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G381" t="s">
         <v>55</v>
@@ -12060,10 +12031,10 @@
         <v>6</v>
       </c>
       <c r="C382" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>2.86E-2</v>
       </c>
       <c r="D382" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E382" s="1">
         <v>6.3E-2</v>
@@ -12074,11 +12045,11 @@
       <c r="H382" t="s">
         <v>6</v>
       </c>
-      <c r="I382">
-        <v>301</v>
-      </c>
-      <c r="J382">
-        <v>470</v>
+      <c r="I382" s="2">
+        <v>1230</v>
+      </c>
+      <c r="J382" s="2">
+        <v>2175</v>
       </c>
       <c r="K382" s="2">
         <v>2737</v>
@@ -12098,7 +12069,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E383" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G383" t="s">
         <v>55</v>
@@ -12124,13 +12095,13 @@
         <v>2</v>
       </c>
       <c r="C384" s="1">
-        <v>9.5E-4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D384" s="1">
-        <v>1.57E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E384" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="G384" t="s">
         <v>55</v>
@@ -12139,10 +12110,10 @@
         <v>2</v>
       </c>
       <c r="I384">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="J384">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="K384">
         <v>496</v>
@@ -12156,13 +12127,13 @@
         <v>7</v>
       </c>
       <c r="C385" s="1">
-        <v>2.86E-2</v>
+        <v>9.5E-4</v>
       </c>
       <c r="D385" s="1">
-        <v>4.7E-2</v>
+        <v>1.57E-3</v>
       </c>
       <c r="E385" s="1">
-        <v>2E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="G385" t="s">
         <v>55</v>
@@ -12170,11 +12141,11 @@
       <c r="H385" t="s">
         <v>7</v>
       </c>
-      <c r="I385" s="2">
-        <v>1230</v>
-      </c>
-      <c r="J385" s="2">
-        <v>2175</v>
+      <c r="I385">
+        <v>41</v>
+      </c>
+      <c r="J385">
+        <v>72</v>
       </c>
       <c r="K385">
         <v>67</v>
@@ -12184,8 +12155,6 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -12265,7 +12234,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="E389" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G389" t="s">
         <v>56</v>
@@ -12291,10 +12260,10 @@
         <v>6</v>
       </c>
       <c r="C390" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D390" s="1">
-        <v>1.1299999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E390" s="1">
         <v>2.3E-2</v>
@@ -12306,10 +12275,10 @@
         <v>6</v>
       </c>
       <c r="I390">
-        <v>525</v>
-      </c>
-      <c r="J390">
-        <v>944</v>
+        <v>794</v>
+      </c>
+      <c r="J390" s="2">
+        <v>1321</v>
       </c>
       <c r="K390" s="2">
         <v>1882</v>
@@ -12329,7 +12298,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E391" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G391" t="s">
         <v>56</v>
@@ -12355,13 +12324,13 @@
         <v>2</v>
       </c>
       <c r="C392" s="1">
-        <v>1.8799999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D392" s="1">
-        <v>2.66E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E392" s="1">
-        <v>1.2E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="G392" t="s">
         <v>56</v>
@@ -12370,10 +12339,10 @@
         <v>2</v>
       </c>
       <c r="I392">
-        <v>165</v>
+        <v>525</v>
       </c>
       <c r="J392">
-        <v>222</v>
+        <v>944</v>
       </c>
       <c r="K392">
         <v>973</v>
@@ -12387,13 +12356,13 @@
         <v>7</v>
       </c>
       <c r="C393" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="D393" s="1">
-        <v>1.6E-2</v>
+        <v>2.66E-3</v>
       </c>
       <c r="E393" s="1">
-        <v>0</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="G393" t="s">
         <v>56</v>
@@ -12402,10 +12371,10 @@
         <v>7</v>
       </c>
       <c r="I393">
-        <v>794</v>
-      </c>
-      <c r="J393" s="2">
-        <v>1321</v>
+        <v>165</v>
+      </c>
+      <c r="J393">
+        <v>222</v>
       </c>
       <c r="K393">
         <v>12</v>
@@ -12415,7 +12384,6 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
-      <c r="J394" s="2"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
@@ -12495,7 +12463,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E397" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G397" t="s">
         <v>57</v>
@@ -12521,10 +12489,10 @@
         <v>6</v>
       </c>
       <c r="C398" s="1">
-        <v>5.7999999999999996E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="D398" s="1">
-        <v>1.2E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E398" s="1">
         <v>0.03</v>
@@ -12536,10 +12504,10 @@
         <v>6</v>
       </c>
       <c r="I398">
-        <v>282</v>
-      </c>
-      <c r="J398">
-        <v>624</v>
+        <v>405</v>
+      </c>
+      <c r="J398" s="2">
+        <v>1071</v>
       </c>
       <c r="K398" s="2">
         <v>1602</v>
@@ -12559,7 +12527,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E399" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G399" t="s">
         <v>57</v>
@@ -12585,13 +12553,13 @@
         <v>2</v>
       </c>
       <c r="C400" s="1">
-        <v>8.8999999999999995E-4</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D400" s="1">
-        <v>1.3600000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E400" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="G400" t="s">
         <v>57</v>
@@ -12600,10 +12568,10 @@
         <v>2</v>
       </c>
       <c r="I400">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="J400">
-        <v>71</v>
+        <v>624</v>
       </c>
       <c r="K400">
         <v>705</v>
@@ -12617,13 +12585,13 @@
         <v>7</v>
       </c>
       <c r="C401" s="1">
-        <v>8.3000000000000001E-3</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="D401" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="E401" s="1">
-        <v>0</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="G401" t="s">
         <v>57</v>
@@ -12632,10 +12600,10 @@
         <v>7</v>
       </c>
       <c r="I401">
-        <v>405</v>
-      </c>
-      <c r="J401" s="2">
-        <v>1071</v>
+        <v>43</v>
+      </c>
+      <c r="J401">
+        <v>71</v>
       </c>
       <c r="K401">
         <v>13</v>
@@ -12645,7 +12613,6 @@
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
-      <c r="J402" s="2"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
@@ -12725,7 +12692,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="E405" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G405" t="s">
         <v>58</v>
@@ -12751,10 +12718,10 @@
         <v>6</v>
       </c>
       <c r="C406" s="1">
-        <v>1.34E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="D406" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E406" s="1">
         <v>7.0999999999999994E-2</v>
@@ -12765,11 +12732,11 @@
       <c r="H406" t="s">
         <v>6</v>
       </c>
-      <c r="I406">
-        <v>719</v>
-      </c>
-      <c r="J406">
-        <v>853</v>
+      <c r="I406" s="2">
+        <v>1152</v>
+      </c>
+      <c r="J406" s="2">
+        <v>2920</v>
       </c>
       <c r="K406" s="2">
         <v>3554</v>
@@ -12789,7 +12756,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="E407" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="G407" t="s">
         <v>58</v>
@@ -12815,13 +12782,13 @@
         <v>2</v>
       </c>
       <c r="C408" s="1">
-        <v>1.01E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="D408" s="1">
-        <v>1.72E-3</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E408" s="1">
-        <v>0.02</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="G408" t="s">
         <v>58</v>
@@ -12830,10 +12797,10 @@
         <v>2</v>
       </c>
       <c r="I408">
-        <v>54</v>
+        <v>719</v>
       </c>
       <c r="J408">
-        <v>94</v>
+        <v>853</v>
       </c>
       <c r="K408">
         <v>982</v>
@@ -12847,13 +12814,13 @@
         <v>7</v>
       </c>
       <c r="C409" s="1">
-        <v>2.1499999999999998E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="D409" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>1.72E-3</v>
       </c>
       <c r="E409" s="1">
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="G409" t="s">
         <v>58</v>
@@ -12861,11 +12828,11 @@
       <c r="H409" t="s">
         <v>7</v>
       </c>
-      <c r="I409" s="2">
-        <v>1152</v>
-      </c>
-      <c r="J409" s="2">
-        <v>2920</v>
+      <c r="I409">
+        <v>54</v>
+      </c>
+      <c r="J409">
+        <v>94</v>
       </c>
       <c r="K409">
         <v>16</v>
@@ -12875,8 +12842,6 @@
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
@@ -12956,7 +12921,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E413" s="1">
-        <v>1.4E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="G413" t="s">
         <v>59</v>
@@ -12982,10 +12947,10 @@
         <v>6</v>
       </c>
       <c r="C414" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="D414" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E414" s="1">
         <v>5.7000000000000002E-2</v>
@@ -12997,10 +12962,10 @@
         <v>6</v>
       </c>
       <c r="I414" s="2">
-        <v>2042</v>
+        <v>4737</v>
       </c>
       <c r="J414" s="2">
-        <v>3399</v>
+        <v>10970</v>
       </c>
       <c r="K414" s="2">
         <v>14811</v>
@@ -13020,7 +12985,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="E415" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G415" t="s">
         <v>59</v>
@@ -13046,13 +13011,13 @@
         <v>2</v>
       </c>
       <c r="C416" s="1">
-        <v>2.3E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D416" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E416" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="G416" t="s">
         <v>59</v>
@@ -13060,11 +13025,11 @@
       <c r="H416" t="s">
         <v>2</v>
       </c>
-      <c r="I416">
-        <v>439</v>
-      </c>
-      <c r="J416">
-        <v>679</v>
+      <c r="I416" s="2">
+        <v>2042</v>
+      </c>
+      <c r="J416" s="2">
+        <v>3399</v>
       </c>
       <c r="K416" s="2">
         <v>4442</v>
@@ -13078,13 +13043,13 @@
         <v>7</v>
       </c>
       <c r="C417" s="1">
-        <v>2.4799999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="D417" s="1">
-        <v>4.7E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E417" s="1">
-        <v>0</v>
+        <v>3.1E-4</v>
       </c>
       <c r="G417" t="s">
         <v>59</v>
@@ -13092,11 +13057,11 @@
       <c r="H417" t="s">
         <v>7</v>
       </c>
-      <c r="I417" s="2">
-        <v>4737</v>
-      </c>
-      <c r="J417" s="2">
-        <v>10970</v>
+      <c r="I417">
+        <v>439</v>
+      </c>
+      <c r="J417">
+        <v>679</v>
       </c>
       <c r="K417">
         <v>79</v>
@@ -13106,8 +13071,6 @@
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
@@ -13187,7 +13150,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E421" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="G421" t="s">
         <v>60</v>
@@ -13213,10 +13176,10 @@
         <v>6</v>
       </c>
       <c r="C422" s="1">
-        <v>6.7999999999999996E-3</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="D422" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E422" s="1">
         <v>4.3999999999999997E-2</v>
@@ -13227,11 +13190,11 @@
       <c r="H422" t="s">
         <v>6</v>
       </c>
-      <c r="I422">
-        <v>688</v>
+      <c r="I422" s="2">
+        <v>1536</v>
       </c>
       <c r="J422" s="2">
-        <v>1333</v>
+        <v>4260</v>
       </c>
       <c r="K422" s="2">
         <v>5855</v>
@@ -13251,7 +13214,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E423" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="G423" t="s">
         <v>60</v>
@@ -13277,13 +13240,13 @@
         <v>2</v>
       </c>
       <c r="C424" s="1">
-        <v>6.7000000000000002E-4</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D424" s="1">
-        <v>1.1800000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E424" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="G424" t="s">
         <v>60</v>
@@ -13292,10 +13255,10 @@
         <v>2</v>
       </c>
       <c r="I424">
-        <v>67</v>
-      </c>
-      <c r="J424">
-        <v>143</v>
+        <v>688</v>
+      </c>
+      <c r="J424" s="2">
+        <v>1333</v>
       </c>
       <c r="K424" s="2">
         <v>1798</v>
@@ -13309,13 +13272,13 @@
         <v>7</v>
       </c>
       <c r="C425" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="D425" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="E425" s="1">
-        <v>0</v>
+        <v>3.1E-4</v>
       </c>
       <c r="G425" t="s">
         <v>60</v>
@@ -13323,11 +13286,11 @@
       <c r="H425" t="s">
         <v>7</v>
       </c>
-      <c r="I425" s="2">
-        <v>1536</v>
-      </c>
-      <c r="J425" s="2">
-        <v>4260</v>
+      <c r="I425">
+        <v>67</v>
+      </c>
+      <c r="J425">
+        <v>143</v>
       </c>
       <c r="K425">
         <v>42</v>
@@ -13337,8 +13300,6 @@
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
@@ -13444,10 +13405,10 @@
         <v>6</v>
       </c>
       <c r="C430" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D430" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E430" s="1">
         <v>2.1999999999999999E-2</v>
@@ -13459,10 +13420,10 @@
         <v>6</v>
       </c>
       <c r="I430">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J430">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K430">
         <v>98</v>
@@ -13482,7 +13443,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E431" s="1">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G431" t="s">
         <v>61</v>
@@ -13508,10 +13469,10 @@
         <v>2</v>
       </c>
       <c r="C432" s="1">
-        <v>0</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D432" s="1">
-        <v>0</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E432" s="1">
         <v>1.2999999999999999E-2</v>
@@ -13523,10 +13484,10 @@
         <v>2</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K432">
         <v>58</v>
@@ -13540,10 +13501,10 @@
         <v>7</v>
       </c>
       <c r="C433" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D433" s="1">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E433" s="1">
         <v>0</v>
@@ -13555,10 +13516,10 @@
         <v>7</v>
       </c>
       <c r="I433">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="J433">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K433">
         <v>0</v>
@@ -13647,7 +13608,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="E437" s="1">
-        <v>0.01</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="G437" t="s">
         <v>62</v>
@@ -13673,10 +13634,10 @@
         <v>6</v>
       </c>
       <c r="C438" s="1">
-        <v>1.32E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="D438" s="1">
-        <v>1.89E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E438" s="1">
         <v>5.0999999999999997E-2</v>
@@ -13688,10 +13649,10 @@
         <v>6</v>
       </c>
       <c r="I438" s="2">
-        <v>1380</v>
+        <v>1631</v>
       </c>
       <c r="J438" s="2">
-        <v>2118</v>
+        <v>4421</v>
       </c>
       <c r="K438" s="2">
         <v>5626</v>
@@ -13711,7 +13672,7 @@
         <v>5.57E-2</v>
       </c>
       <c r="E439" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="G439" t="s">
         <v>62</v>
@@ -13737,13 +13698,13 @@
         <v>2</v>
       </c>
       <c r="C440" s="1">
-        <v>1.25E-3</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D440" s="1">
-        <v>1.1900000000000001E-3</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E440" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="G440" t="s">
         <v>62</v>
@@ -13751,11 +13712,11 @@
       <c r="H440" t="s">
         <v>2</v>
       </c>
-      <c r="I440">
-        <v>131</v>
-      </c>
-      <c r="J440">
-        <v>133</v>
+      <c r="I440" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J440" s="2">
+        <v>2118</v>
       </c>
       <c r="K440" s="2">
         <v>2739</v>
@@ -13769,13 +13730,13 @@
         <v>7</v>
       </c>
       <c r="C441" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.25E-3</v>
       </c>
       <c r="D441" s="1">
-        <v>0.04</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="E441" s="1">
-        <v>1E-3</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="G441" t="s">
         <v>62</v>
@@ -13783,11 +13744,11 @@
       <c r="H441" t="s">
         <v>7</v>
       </c>
-      <c r="I441" s="2">
-        <v>1631</v>
-      </c>
-      <c r="J441" s="2">
-        <v>4421</v>
+      <c r="I441">
+        <v>131</v>
+      </c>
+      <c r="J441">
+        <v>133</v>
       </c>
       <c r="K441">
         <v>70</v>
@@ -13797,8 +13758,6 @@
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
-      <c r="I442" s="2"/>
-      <c r="J442" s="2"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
@@ -13878,7 +13837,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="E445" s="1">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G445" t="s">
         <v>63</v>
@@ -13904,10 +13863,10 @@
         <v>6</v>
       </c>
       <c r="C446" s="1">
-        <v>4.3E-3</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="D446" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E446" s="1">
         <v>4.5999999999999999E-2</v>
@@ -13919,10 +13878,10 @@
         <v>6</v>
       </c>
       <c r="I446">
-        <v>98</v>
+        <v>461</v>
       </c>
       <c r="J446">
-        <v>125</v>
+        <v>943</v>
       </c>
       <c r="K446" s="2">
         <v>1025</v>
@@ -13942,7 +13901,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="E447" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G447" t="s">
         <v>63</v>
@@ -13968,10 +13927,10 @@
         <v>2</v>
       </c>
       <c r="C448" s="1">
-        <v>8.3000000000000001E-4</v>
+        <v>4.3E-3</v>
       </c>
       <c r="D448" s="1">
-        <v>7.9000000000000001E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E448" s="1">
         <v>8.0000000000000002E-3</v>
@@ -13983,10 +13942,10 @@
         <v>2</v>
       </c>
       <c r="I448">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="J448">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="K448">
         <v>178</v>
@@ -14000,13 +13959,13 @@
         <v>7</v>
       </c>
       <c r="C449" s="1">
-        <v>2.0199999999999999E-2</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="D449" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E449" s="1">
-        <v>1E-3</v>
+        <v>5.8E-4</v>
       </c>
       <c r="G449" t="s">
         <v>63</v>
@@ -14015,10 +13974,10 @@
         <v>7</v>
       </c>
       <c r="I449">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="J449">
-        <v>943</v>
+        <v>18</v>
       </c>
       <c r="K449">
         <v>13</v>
@@ -14107,7 +14066,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="E453" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="G453" t="s">
         <v>64</v>
@@ -14133,10 +14092,10 @@
         <v>6</v>
       </c>
       <c r="C454" s="1">
-        <v>6.7999999999999996E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D454" s="1">
-        <v>1.15E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E454" s="1">
         <v>3.6999999999999998E-2</v>
@@ -14148,10 +14107,10 @@
         <v>6</v>
       </c>
       <c r="I454">
-        <v>366</v>
-      </c>
-      <c r="J454">
-        <v>667</v>
+        <v>742</v>
+      </c>
+      <c r="J454" s="2">
+        <v>1381</v>
       </c>
       <c r="K454" s="2">
         <v>2196</v>
@@ -14171,7 +14130,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="E455" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="G455" t="s">
         <v>64</v>
@@ -14197,13 +14156,13 @@
         <v>2</v>
       </c>
       <c r="C456" s="1">
-        <v>4.0999999999999999E-4</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D456" s="1">
-        <v>9.7999999999999997E-4</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E456" s="1">
-        <v>1.4E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="G456" t="s">
         <v>64</v>
@@ -14212,10 +14171,10 @@
         <v>2</v>
       </c>
       <c r="I456">
-        <v>22</v>
+        <v>366</v>
       </c>
       <c r="J456">
-        <v>57</v>
+        <v>667</v>
       </c>
       <c r="K456">
         <v>829</v>
@@ -14229,13 +14188,13 @@
         <v>7</v>
       </c>
       <c r="C457" s="1">
-        <v>1.38E-2</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="D457" s="1">
-        <v>2.4E-2</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="E457" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="G457" t="s">
         <v>64</v>
@@ -14244,10 +14203,10 @@
         <v>7</v>
       </c>
       <c r="I457">
-        <v>742</v>
-      </c>
-      <c r="J457" s="2">
-        <v>1381</v>
+        <v>22</v>
+      </c>
+      <c r="J457">
+        <v>57</v>
       </c>
       <c r="K457">
         <v>6</v>
@@ -14257,7 +14216,6 @@
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
-      <c r="J458" s="2"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
@@ -14363,10 +14321,10 @@
         <v>6</v>
       </c>
       <c r="C462" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="D462" s="1">
-        <v>3.09E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E462" s="1">
         <v>9.4E-2</v>
@@ -14378,10 +14336,10 @@
         <v>6</v>
       </c>
       <c r="I462" s="2">
-        <v>1421</v>
+        <v>3111</v>
       </c>
       <c r="J462" s="2">
-        <v>1616</v>
+        <v>3775</v>
       </c>
       <c r="K462" s="2">
         <v>4584</v>
@@ -14401,7 +14359,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="E463" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="G463" t="s">
         <v>65</v>
@@ -14427,10 +14385,10 @@
         <v>2</v>
       </c>
       <c r="C464" s="1">
-        <v>4.4900000000000001E-3</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="D464" s="1">
-        <v>5.8100000000000001E-3</v>
+        <v>3.09E-2</v>
       </c>
       <c r="E464" s="1">
         <v>3.1E-2</v>
@@ -14441,11 +14399,11 @@
       <c r="H464" t="s">
         <v>2</v>
       </c>
-      <c r="I464">
-        <v>236</v>
-      </c>
-      <c r="J464">
-        <v>304</v>
+      <c r="I464" s="2">
+        <v>1421</v>
+      </c>
+      <c r="J464" s="2">
+        <v>1616</v>
       </c>
       <c r="K464" s="2">
         <v>1516</v>
@@ -14459,13 +14417,13 @@
         <v>7</v>
       </c>
       <c r="C465" s="1">
-        <v>5.9200000000000003E-2</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="D465" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>5.8100000000000001E-3</v>
       </c>
       <c r="E465" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="G465" t="s">
         <v>65</v>
@@ -14473,11 +14431,11 @@
       <c r="H465" t="s">
         <v>7</v>
       </c>
-      <c r="I465" s="2">
-        <v>3111</v>
-      </c>
-      <c r="J465" s="2">
-        <v>3775</v>
+      <c r="I465">
+        <v>236</v>
+      </c>
+      <c r="J465">
+        <v>304</v>
       </c>
       <c r="K465">
         <v>201</v>
@@ -14487,8 +14445,6 @@
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
-      <c r="I466" s="2"/>
-      <c r="J466" s="2"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
@@ -14568,7 +14524,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="E469" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G469" t="s">
         <v>66</v>
@@ -14594,10 +14550,10 @@
         <v>6</v>
       </c>
       <c r="C470" s="1">
-        <v>5.1000000000000004E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="D470" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E470" s="1">
         <v>2.4E-2</v>
@@ -14609,10 +14565,10 @@
         <v>6</v>
       </c>
       <c r="I470">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="J470">
-        <v>455</v>
+        <v>887</v>
       </c>
       <c r="K470" s="2">
         <v>1141</v>
@@ -14632,7 +14588,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E471" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G471" t="s">
         <v>66</v>
@@ -14658,13 +14614,13 @@
         <v>2</v>
       </c>
       <c r="C472" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="D472" s="1">
-        <v>3.6000000000000002E-4</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E472" s="1">
-        <v>1.4E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="G472" t="s">
         <v>66</v>
@@ -14673,10 +14629,10 @@
         <v>2</v>
       </c>
       <c r="I472">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="J472">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="K472">
         <v>634</v>
@@ -14690,13 +14646,13 @@
         <v>7</v>
       </c>
       <c r="C473" s="1">
-        <v>7.6E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D473" s="1">
-        <v>1.9E-2</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="E473" s="1">
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="G473" t="s">
         <v>66</v>
@@ -14705,10 +14661,10 @@
         <v>7</v>
       </c>
       <c r="I473">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="J473">
-        <v>887</v>
+        <v>17</v>
       </c>
       <c r="K473">
         <v>8</v>
@@ -14823,10 +14779,10 @@
         <v>6</v>
       </c>
       <c r="C478" s="1">
-        <v>7.7999999999999996E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D478" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E478" s="1">
         <v>0.02</v>
@@ -14838,10 +14794,10 @@
         <v>6</v>
       </c>
       <c r="I478">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="J478">
-        <v>432</v>
+        <v>670</v>
       </c>
       <c r="K478">
         <v>773</v>
@@ -14861,7 +14817,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E479" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G479" t="s">
         <v>67</v>
@@ -14887,13 +14843,13 @@
         <v>2</v>
       </c>
       <c r="C480" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="D480" s="1">
-        <v>6.8000000000000005E-4</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E480" s="1">
-        <v>1.4E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="G480" t="s">
         <v>67</v>
@@ -14902,10 +14858,10 @@
         <v>2</v>
       </c>
       <c r="I480">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="J480">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="K480">
         <v>528</v>
@@ -14919,13 +14875,13 @@
         <v>7</v>
       </c>
       <c r="C481" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="D481" s="1">
-        <v>1.6E-2</v>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="E481" s="1">
-        <v>0</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="G481" t="s">
         <v>67</v>
@@ -14934,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="I481">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J481">
-        <v>670</v>
+        <v>28</v>
       </c>
       <c r="K481">
         <v>10</v>
@@ -15026,7 +14982,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E485" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="G485" t="s">
         <v>68</v>
@@ -15052,10 +15008,10 @@
         <v>6</v>
       </c>
       <c r="C486" s="1">
-        <v>6.8999999999999999E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="D486" s="1">
-        <v>9.7999999999999997E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E486" s="1">
         <v>3.2000000000000001E-2</v>
@@ -15067,10 +15023,10 @@
         <v>6</v>
       </c>
       <c r="I486">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="J486">
-        <v>234</v>
+        <v>544</v>
       </c>
       <c r="K486">
         <v>850</v>
@@ -15116,13 +15072,13 @@
         <v>2</v>
       </c>
       <c r="C488" s="1">
-        <v>6.4999999999999997E-4</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D488" s="1">
-        <v>1.14E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E488" s="1">
-        <v>1.2E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="G488" t="s">
         <v>68</v>
@@ -15131,10 +15087,10 @@
         <v>2</v>
       </c>
       <c r="I488">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="J488">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="K488">
         <v>328</v>
@@ -15148,13 +15104,13 @@
         <v>7</v>
       </c>
       <c r="C489" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="D489" s="1">
-        <v>2.3E-2</v>
+        <v>1.14E-3</v>
       </c>
       <c r="E489" s="1">
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="G489" t="s">
         <v>68</v>
@@ -15163,10 +15119,10 @@
         <v>7</v>
       </c>
       <c r="I489">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="J489">
-        <v>544</v>
+        <v>27</v>
       </c>
       <c r="K489">
         <v>1</v>
@@ -15255,7 +15211,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E493" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="G493" t="s">
         <v>69</v>
@@ -15281,10 +15237,10 @@
         <v>6</v>
       </c>
       <c r="C494" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="D494" s="1">
-        <v>7.6E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E494" s="1">
         <v>0.04</v>
@@ -15296,10 +15252,10 @@
         <v>6</v>
       </c>
       <c r="I494">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="J494">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="K494">
         <v>435</v>
@@ -15319,7 +15275,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="E495" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G495" t="s">
         <v>69</v>
@@ -15345,13 +15301,13 @@
         <v>2</v>
       </c>
       <c r="C496" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D496" s="1">
-        <v>0</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E496" s="1">
-        <v>0.01</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G496" t="s">
         <v>69</v>
@@ -15360,10 +15316,10 @@
         <v>2</v>
       </c>
       <c r="I496">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J496">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K496">
         <v>114</v>
@@ -15377,10 +15333,10 @@
         <v>7</v>
       </c>
       <c r="C497" s="1">
-        <v>1.35E-2</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D497" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E497" s="1">
         <v>0</v>
@@ -15392,10 +15348,10 @@
         <v>7</v>
       </c>
       <c r="I497">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="J497">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="K497">
         <v>0</v>
@@ -15484,7 +15440,7 @@
         <v>2E-3</v>
       </c>
       <c r="E501" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G501" t="s">
         <v>70</v>
@@ -15510,10 +15466,10 @@
         <v>6</v>
       </c>
       <c r="C502" s="1">
-        <v>3.8E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D502" s="1">
-        <v>4.8999999999999998E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E502" s="1">
         <v>1.6E-2</v>
@@ -15525,10 +15481,10 @@
         <v>6</v>
       </c>
       <c r="I502">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="J502">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="K502">
         <v>241</v>
@@ -15548,7 +15504,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E503" s="1">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G503" t="s">
         <v>70</v>
@@ -15574,10 +15530,10 @@
         <v>2</v>
       </c>
       <c r="C504" s="1">
-        <v>2.5999999999999998E-4</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D504" s="1">
-        <v>6.4000000000000005E-4</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E504" s="1">
         <v>8.0000000000000002E-3</v>
@@ -15589,10 +15545,10 @@
         <v>2</v>
       </c>
       <c r="I504">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J504">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="K504">
         <v>123</v>
@@ -15606,13 +15562,13 @@
         <v>7</v>
       </c>
       <c r="C505" s="1">
-        <v>1.04E-2</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="D505" s="1">
-        <v>1.6E-2</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="E505" s="1">
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="G505" t="s">
         <v>70</v>
@@ -15621,10 +15577,10 @@
         <v>7</v>
       </c>
       <c r="I505">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="J505">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="K505">
         <v>3</v>
@@ -15713,7 +15669,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E509" s="1">
-        <v>2E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G509" t="s">
         <v>71</v>
@@ -15739,10 +15695,10 @@
         <v>6</v>
       </c>
       <c r="C510" s="1">
-        <v>7.7999999999999996E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D510" s="1">
-        <v>1.01E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E510" s="1">
         <v>2.1999999999999999E-2</v>
@@ -15754,10 +15710,10 @@
         <v>6</v>
       </c>
       <c r="I510">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J510">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="K510">
         <v>309</v>
@@ -15777,7 +15733,7 @@
         <v>6.3E-3</v>
       </c>
       <c r="E511" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="G511" t="s">
         <v>71</v>
@@ -15803,13 +15759,13 @@
         <v>2</v>
       </c>
       <c r="C512" s="1">
-        <v>6.4999999999999997E-4</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="D512" s="1">
-        <v>5.9000000000000003E-4</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E512" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="G512" t="s">
         <v>71</v>
@@ -15818,10 +15774,10 @@
         <v>2</v>
       </c>
       <c r="I512">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="J512">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="K512">
         <v>218</v>
@@ -15835,13 +15791,13 @@
         <v>7</v>
       </c>
       <c r="C513" s="1">
-        <v>8.6999999999999994E-3</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="D513" s="1">
-        <v>1.6E-2</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="E513" s="1">
-        <v>0</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="G513" t="s">
         <v>71</v>
@@ -15850,10 +15806,10 @@
         <v>7</v>
       </c>
       <c r="I513">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="J513">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="K513">
         <v>2</v>
@@ -15865,20 +15821,5 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>